--- a/loaded_influencer_data/lillieswithmary/lillieswithmary_video.xlsx
+++ b/loaded_influencer_data/lillieswithmary/lillieswithmary_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,27 +506,286 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lillieswithmary/video/7489474015048797462</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>313</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GRWM unaesthetic version
+All products are available on yesstyle using codes YUHAN12 + LWMARY313
+•
+•
+•
+•
+•</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>18.21086261980831</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.89137380191693</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.3194888178913738</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lillieswithmary/video/7488676569544789270</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>315</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>How much my AM skincare routine costs irritated skin version
+▪︎In all fairness, all of these products have lasted me months, so I think it's a great investment🫣</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>15.23809523809524</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.65079365079365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lillieswithmary/photo/7488304883716721942</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>664</v>
+      </c>
+      <c r="C4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>who said "yeah let's throw some weather data into a maths course" and called it a day
+#largedataset</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>14.00602409638554</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.25301204819277</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7530120481927711</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1506024096385542</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lillieswithmary/video/7487982590260038934</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>352</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Haruharu wonder black rice probiotics essence has been the best product for me when it comes to healing my skin barrier!!</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>18.46590909090909</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.19318181818182</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.272727272727273</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2840909090909091</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lillieswithmary/video/7487936658382359830</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C6" t="n">
+        <v>138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>weak hero class 2 in April
+#netflix #weakheroclass2 #weakhero #kdrama #foryou #fyp #xyzbca #viral #trending</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5.43175487465181</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.805013927576602</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6267409470752089</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3481894150417827</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7486853332938755351</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>262</v>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="B7" t="n">
+        <v>354</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>I love using this eye serum in the morning!
 •
@@ -537,261 +796,255 @@
 #fyp #viral</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>12.21374045801527</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.21374045801527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3816793893129771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="H7" t="n">
+        <v>16.10169491525424</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.97175141242938</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.129943502824859</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5649717514124294</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/photo/7486509984549768450</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>420</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B8" t="n">
+        <v>462</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89</v>
+      </c>
+      <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>I love using this eye serum in the morning!
-•
-•
-•
-•
-#eyeserum #skinandlab #skinnandlab #darkcircles
-#fyp #viral</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19.04761904761905</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9523809523809524</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>#cinnamonroll #sanrio #lego #legobricks #fyp #foryou #xyzbca #trending #viral</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>20.12987012987013</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19.26406926406926</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8658008658008658</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2164502164502164</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7485842840216505622</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>564</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B9" t="n">
+        <v>585</v>
+      </c>
+      <c r="C9" t="n">
         <v>54</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>SAVE ME FROM EXAMS
 #alevels #uk #college #exams #fyp #relatable #viral #trending #xyzbca</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>9.929078014184398</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.574468085106384</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3546099290780142</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H9" t="n">
+        <v>9.743589743589745</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.230769230769232</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7485405760726240534</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>727</v>
-      </c>
-      <c r="C5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B10" t="n">
+        <v>757</v>
+      </c>
+      <c r="C10" t="n">
+        <v>73</v>
+      </c>
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>10</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>This study tip helped me be prepared for exams🤞🏽
 #studytok #studytips #exams #easy #school #college #fyp</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>11.00412654745529</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.903713892709765</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.10041265474553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.375515818431912</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H10" t="n">
+        <v>10.7001321003963</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9.64332892998679</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.056803170409511</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.321003963011889</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7485006086253104406</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>451</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>53</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>This study tip helped me be prepared for exams🤞🏽
 #studytok #studytips #exams #easy #school #college #fyp</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>12.63858093126386</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>11.75166297117517</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.8869179600886918</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>0.221729490022173</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7484288417468091670</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>495</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>70</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>My favourite products when it comes to getting rid of dark marks!!
 [Not sponsored, these are my own opinions]
@@ -799,52 +1052,52 @@
 •</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>14.54545454545454</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>14.14141414141414</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.404040404040404</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>0.8080808080808081</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7483896756913196310</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>522</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Cinnamon roll items are so cute :)
 •
@@ -855,154 +1108,154 @@
 Use rewards code LWMARY313 at checkout on yesstyle for % off</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>9.578544061302683</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>9.386973180076629</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1915708812260536</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/photo/7483442617468865814</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>389</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>I &lt;3 paint by numbers!
 #painting #paintbynumbers #fyp #fyppppppppppppppppppppppp #xyzbca #viral #trending</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>17.48071979434447</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>16.7095115681234</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.7712082262210797</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L14" t="n">
         <v>0.7712082262210797</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7483138823287786774</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>2191</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>96</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>I &lt;3 paint by numbers!
 #painting #paintbynumbers #fyp #fyppppppppppppppppppppppp #xyzbca #viral #trending</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>4.564125969876769</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>4.381560931081698</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1825650387950707</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>0.1825650387950707</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7482427100675230998</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>240</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>46</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>shein: 44847816
 •
@@ -1014,103 +1267,103 @@
 @SHEIN UK</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>20.83333333333334</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>19.16666666666667</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7481754030054722838</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>579</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>86</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>I promise I just like my room and I'm not a social reject.....
 #room #roomaesthetic #bestfriend #relatable #fyp #xyzbca</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>15.1986183074266</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>14.85319516407599</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.3454231433506045</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7480589053587459350</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>397</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>38</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Unbox my tamagotchi dupe from Ali express!
 •
@@ -1120,255 +1373,255 @@
 #tamagotchi #dupe #aliexpress #aliexpressfinds</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>10.07556675062972</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>9.571788413098236</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.5037783375314862</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.2518891687657431</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7480196888935943446</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B19" t="n">
         <v>428</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C19" t="n">
         <v>65</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D19" t="n">
         <v>8</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>Painting + fav shows = &lt;3
 #Painting #freetherapy #fyp #foryou #xyzbca #viral #trending</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H19" t="n">
         <v>17.05607476635514</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I19" t="n">
         <v>15.18691588785047</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.869158878504673</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7479810725305781526</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B20" t="n">
         <v>511</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>52</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>they have all the sanrio characters😖
 #kuromi #sanrio #theentertainer #plushi #cute #fyp #foryou #xyzbca</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>10.95890410958904</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>10.17612524461839</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.7827788649706457</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7479604678347492630</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>542</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>87</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>they have all the sanrio characters😖
 #kuromi #sanrio #theentertainer #plushi #cute #fyp #foryou #xyzbca</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>18.08118081180812</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>16.05166051660516</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.029520295202952</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.1845018450184502</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7478719342599867670</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>369</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>46</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>I claimed this free product as part of my yesstyle influencer program! Join through the link in my bio now 💓</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>14.09214092140921</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>12.46612466124661</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.626016260162602</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7477921956860398870</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>388</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>42</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D23" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>🖊my favourite stationary items from @Temu
 •
@@ -1381,103 +1634,103 @@
 #stationary #stationaryhaul #stationaryaesthetic</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>11.08247422680412</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>10.82474226804124</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.2577319587628866</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L23" t="n">
         <v>0.2577319587628866</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7477586436217195798</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>370</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>44</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>6</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Currently on sale on yesstyle and get a further discount using codes DEMPS10 + LWMARY313 💓
 The serum has helped calm a lot of my redness recently and I can't wait to continue using these products!!</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>13.51351351351351</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>11.89189189189189</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.621621621621622</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>0.2702702702702703</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7477231703677750550</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>349</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>54</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>All these mixsoon products are available on yesstyle! using code DEMPS10 + LWMARY313 for extra % off!
 •
@@ -1488,52 +1741,52 @@
 •</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>16.3323782234957</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>15.47277936962751</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.8595988538681949</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.2865329512893983</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7476501047066791190</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>438</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>81</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>lazy fit (basically my everyday outfit)
 •
@@ -1544,205 +1797,205 @@
 #outfit #ootd #fashion #clothing #smallcreator #fyp #foryou</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>19.63470319634703</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>18.49315068493151</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.141552511415525</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.228310502283105</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7475404686170901782</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>524</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>60</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>You can also become a yesstyle influencer through the link in my bio!
 #yesstyle #yesstyleinfluencer #freeproducts</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>12.21374045801527</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>11.45038167938931</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.7633587786259541</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.1908396946564885</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7474997438353280278</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>389</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>41</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>9</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>🥕 Get unready with me using skinfood products!
 So happy to finally find a good exfoliating yet moisturising routine💓</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>12.85347043701799</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>10.53984575835476</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.313624678663239</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7474633087557651734</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>399</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>41</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>I received this product for free from Centellian24 and Picky
 #pickyreview #gopicky #pickyxcentellian24</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>13.7844611528822</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>10.27568922305764</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.508771929824561</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L29" t="n">
         <v>0.2506265664160401</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7473895822493519126</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>417</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>52</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>8</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>💌All these serums are available on @YesStyleInfluencers using code LWMARY313 for % off!!
 •
@@ -1752,103 +2005,103 @@
 •</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>14.38848920863309</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>12.47002398081535</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1.918465227817746</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.4796163069544364</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7473175742025698582</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>390</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>46</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>My favourite cleansers! All available on yesstyle using codes DEMPS10 + LWMARY313 for discount &lt;3
 [This is simply my opinion, not sponsored]</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>12.05128205128205</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>11.79487179487179</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/photo/7472775651347418390</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>467</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>75</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>"Thank you yesstyle!" we say in unison 🙂
 @YesStyle
@@ -1859,52 +2112,52 @@
 #YestiesMoments #YestiesTurnsOne #YestiesDay</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>17.1306209850107</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>16.05995717344754</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1.070663811563169</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.6423982869379015</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7472393533211561238</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>369</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>60</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>4</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>"Thank you yesstyle!" we say in unison 🙂
 @YesStyle
@@ -1915,1148 +2168,944 @@
 #YestiesMoments #YestiesTurnsOne #YestiesDay</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>17.34417344173442</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>16.26016260162601</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1.084010840108401</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>1.084010840108401</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7472015963144146198</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>391</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>48</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>💌 My favourite hydrating skincare products are all available on yesstyle using codes DEMPS10 + LWMARY313 for extra discount &lt;3</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>13.29923273657289</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>12.27621483375959</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.023017902813299</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>0.5115089514066496</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7471634912567741718</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>11500</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>778</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>66</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>59</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>omniscient readers viewpoint live action will be very different to the webtoon but oh well. I'm seated for ahn hyo seop</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>7.339130434782609</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>6.765217391304349</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.5739130434782609</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>0.5130434782608695</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7471248850943069462</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>873</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>87</v>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>(^ー^)
 pottery painting inspiration
 #potterypainting #ideas #inspiration #potterypaintingideas #inspo #fy #fyp</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>9.965635738831615</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>9.965635738831615</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.1145475372279496</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7470938001644850454</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>368</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>62</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>All products are available on yesstyle using code:
 DEMPS10 + LWMARY313
 So excited to try out the brightening ampoule!!</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>19.02173913043478</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>16.84782608695652</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.173913043478261</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>0.2717391304347826</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7470574756496952598</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>347</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>56</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>my favourite skincare products for dark marks!
 All products available on yesstyle using code DEMPS10 + LWMARY313 for a discount 💓</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>17.86743515850144</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>16.13832853025936</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.729106628242075</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>0.5763688760806917</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7470199601371417889</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>416</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>72</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>👾 a fit from last week
 ( ≧∀≦)ノ
 #ootd #outfit #fashion #clothing #collegefit #fyp #foryou #viral #trending</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H39" t="n">
         <v>18.26923076923077</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I39" t="n">
         <v>17.30769230769231</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7469799441818488097</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B40" t="n">
         <v>404</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>60</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Yesstyle code: LWMARY313
 #YSkidult #yesstyle #yesstyleimfluencer #sanrio #kuromi #mymelody</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H40" t="n">
         <v>15.84158415841584</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I40" t="n">
         <v>14.85148514851485</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.9900990099009901</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7467513414223449377</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B41" t="n">
         <v>11300</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C41" t="n">
         <v>873</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>83</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>weak hero class 2 rumoured release in 2nd quarter
 #weakheroclass #weakheroclass2 #kdrama #fyp</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H41" t="n">
         <v>7.91150442477876</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I41" t="n">
         <v>7.725663716814159</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.1858407079646018</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L41" t="n">
         <v>0.7345132743362832</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7467269122225638688</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B42" t="n">
         <v>214800</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C42" t="n">
         <v>27000</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D42" t="n">
         <v>289</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>1831</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>weak hero class 2 update
 #weakheroclass2 #weakheroclass1 #kdrama #kdramafyp #fyp #foryou #viral #trending</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H42" t="n">
         <v>12.70437616387337</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I42" t="n">
         <v>12.56983240223464</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1345437616387337</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L42" t="n">
         <v>0.8524208566108008</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7467232418458570017</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B43" t="n">
         <v>400</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C43" t="n">
         <v>44</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>weak hero class 2 update
 #weakheroclass2 #weakheroclass1 #kdrama #kdramafyp #fyp #foryou #viral #trending</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H43" t="n">
         <v>11.5</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I43" t="n">
         <v>11</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.5</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L43" t="n">
         <v>0.5</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/photo/7466805312280972576</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B44" t="n">
         <v>416</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C44" t="n">
         <v>65</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D44" t="n">
         <v>4</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>So greatful! Thank you to every brand 💓
 #PR #koreanskincare #fyp #viral #trending #smallcontentcreator</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H44" t="n">
         <v>16.58653846153846</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I44" t="n">
         <v>15.625</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L44" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7466502002432888096</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B45" t="n">
         <v>443</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C45" t="n">
         <v>80</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>#sushi #bbq #Japanese #food #japanesefusion #fyp #viral #trending</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>18.51015801354402</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>18.05869074492099</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.4514672686230248</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/photo/7466438049862290721</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>371</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>69</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>#sushi #bbq #Japanese #food #japanesefusion #fyp #viral #trending</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>19.13746630727763</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>18.59838274932615</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.5390835579514826</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7465777293844172065</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>1351</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>122</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>study group got me out my kdrama slump
 #studygroup #webtoon #kdrama #fyp #relatable</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>9.030347890451518</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>9.030347890451518</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.2220577350111029</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7465368818177641760</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>390</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>72</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Here are some of my favourite brightening skincare products and tips! I've seen a huge difference after including these in my routine (^○^)</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>18.71794871794872</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>18.46153846153846</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.2564102564102564</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>1.794871794871795</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7465007269428710688</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B49" t="n">
         <v>536</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>86</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>9</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>💌 I definitely need to invest in more bag accessories! (^-^)/
 Accessories available on yesstyle and get an extra % off using rewards code LWMARY313</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H49" t="n">
         <v>17.72388059701493</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I49" t="n">
         <v>16.04477611940299</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.67910447761194</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L49" t="n">
         <v>0.3731343283582089</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7464576278067154208</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B50" t="n">
         <v>381</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C50" t="n">
         <v>55</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D50" t="n">
         <v>4</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Torriden hydrating products are perfect for repairing skin barriers and helping irritated skin!
 #torriden</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H50" t="n">
         <v>15.48556430446194</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I50" t="n">
         <v>14.43569553805774</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.049868766404199</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L50" t="n">
         <v>1.049868766404199</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@lillieswithmary/video/7463908177466133792</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B51" t="n">
         <v>448</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C51" t="n">
         <v>77</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D51" t="n">
         <v>7</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>5</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>I will always love haruharu😆
 #haruharu #haruharuwonder #skincare #skincarebrand
 @haruharu wonder</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H51" t="n">
         <v>18.75</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I51" t="n">
         <v>17.1875</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.5625</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L51" t="n">
         <v>1.116071428571429</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lillieswithmary/photo/7463575914698296609</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>462</v>
-      </c>
-      <c r="C47" t="n">
-        <v>51</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>it's been 6 years please acne leave me alone😔
-(forever grateful for the improvement though!)
-#acne #spots #meme</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>11.68831168831169</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11.03896103896104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.6493506493506493</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-01-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lillieswithmary/video/7463095629716163872</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>381</v>
-      </c>
-      <c r="C48" t="n">
-        <v>52</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>I received this product for free from Picky and ANUA in exchange for my honest review #pickyreview #gopicky</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>15.22309711286089</v>
-      </c>
-      <c r="I48" t="n">
-        <v>13.64829396325459</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.574803149606299</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.2624671916010499</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lillieswithmary/video/7462906725918723361</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>428</v>
-      </c>
-      <c r="C49" t="n">
-        <v>80</v>
-      </c>
-      <c r="D49" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>7</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Decorating my desk!
-#desk #deskdecor #fyp #clean #foryou</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>20.32710280373832</v>
-      </c>
-      <c r="I49" t="n">
-        <v>18.69158878504673</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.635514018691589</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.635514018691589</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@lillieswithmary/video/7462474531475590432</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>21100</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2923</v>
-      </c>
-      <c r="D50" t="n">
-        <v>77</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>239</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>I've waited 3 years for season 2😭 please hurry up!!!
-#weakheroclass1 #kdrama #fyp #parkjihoon</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>14.21800947867299</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13.85308056872038</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.3649289099526066</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.132701421800948</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
         </is>
       </c>
     </row>
